--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem5/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem5/99/word_level_predictions_99.xlsx
@@ -502,158 +502,158 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Strong</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="G2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="I2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>wireless</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="I3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>wireless</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>interference</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="G4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>interference</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G9" s="2" t="b">
@@ -913,7 +913,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G50" s="2" t="b">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G51" s="2" t="b">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3125,7 +3125,7 @@
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G52" s="2" t="b">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G53" s="2" t="b">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G54" s="2" t="b">
@@ -3253,7 +3253,7 @@
       </c>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G59" s="2" t="b">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -4217,7 +4217,7 @@
       </c>
       <c r="F73" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G73" s="2" t="b">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="L73" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G77" s="2" t="b">
@@ -4449,7 +4449,7 @@
       </c>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G78" s="2" t="b">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="F85" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G85" s="2" t="b">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="L85" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5569,7 +5569,7 @@
       </c>
       <c r="F99" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G99" s="2" t="b">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="L99" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -6609,7 +6609,7 @@
       </c>
       <c r="F119" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G119" s="2" t="b">
@@ -6633,7 +6633,7 @@
       </c>
       <c r="L119" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -6869,7 +6869,7 @@
       </c>
       <c r="F124" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G124" s="2" t="b">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="L124" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_E</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7834,54 +7834,54 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
+      <c r="A143" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B143" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C143" s="2" t="inlineStr">
         <is>
           <t>1.</t>
         </is>
       </c>
-      <c r="D143" t="n">
+      <c r="D143" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" t="b">
-        <v>1</v>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K143" t="b">
-        <v>1</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
+      <c r="E143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J143" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G144" t="b">
@@ -7933,7 +7933,7 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem5/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem5/99/word_level_predictions_99.xlsx
@@ -502,158 +502,158 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Strong</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2" t="inlineStr">
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>wireless</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2" t="inlineStr">
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>interference</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G9" s="2" t="b">
@@ -913,7 +913,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G50" s="2" t="b">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G51" s="2" t="b">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3125,7 +3125,7 @@
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G52" s="2" t="b">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G53" s="2" t="b">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G54" s="2" t="b">
@@ -3253,7 +3253,7 @@
       </c>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G59" s="2" t="b">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4217,7 +4217,7 @@
       </c>
       <c r="F73" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G73" s="2" t="b">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="L73" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G77" s="2" t="b">
@@ -4449,7 +4449,7 @@
       </c>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G78" s="2" t="b">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="F85" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G85" s="2" t="b">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="L85" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -5569,7 +5569,7 @@
       </c>
       <c r="F99" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G99" s="2" t="b">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="L99" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -6609,7 +6609,7 @@
       </c>
       <c r="F119" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G119" s="2" t="b">
@@ -6633,7 +6633,7 @@
       </c>
       <c r="L119" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6869,7 +6869,7 @@
       </c>
       <c r="F124" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G124" s="2" t="b">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="L124" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -7834,54 +7834,54 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n">
+      <c r="A143" t="n">
         <v>6</v>
       </c>
-      <c r="B143" s="2" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C143" s="2" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>1.</t>
         </is>
       </c>
-      <c r="D143" s="2" t="n">
+      <c r="D143" t="n">
         <v>3</v>
       </c>
-      <c r="E143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L143" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" t="b">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G144" t="b">
@@ -7933,7 +7933,7 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
